--- a/config_files/Configuration.xlsx
+++ b/config_files/Configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\mbhattarai\pynotebooks\costco_order_forecasting_v6\config_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0E77E4-2888-4741-871C-EDDDFBC6514A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CF2037-30D8-455B-A41F-0942A6DA6716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{062B9C60-6BD8-4759-AC58-0B9057946F31}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{062B9C60-6BD8-4759-AC58-0B9057946F31}"/>
   </bookViews>
   <sheets>
     <sheet name="config_active" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="32">
   <si>
     <t>item_no</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>MW</t>
+  </si>
+  <si>
+    <t>SIGNATURE SUSHI PLATTER</t>
   </si>
 </sst>
 </file>
@@ -140,7 +143,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +162,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -185,7 +195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -198,6 +208,7 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -533,16 +544,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984C03C8-67F6-465E-9F72-ED938BD620DE}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.28515625" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -664,24 +675,24 @@
         <v>45995</v>
       </c>
       <c r="E7" s="5">
-        <v>46022</v>
+        <v>45998</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>1816554</v>
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2017594</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D8" s="5">
-        <v>45658</v>
+        <v>46002</v>
       </c>
       <c r="E8" s="5">
-        <v>45915</v>
+        <v>46022</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -689,16 +700,16 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>1839811</v>
+        <v>1816554</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D9" s="5">
         <v>45658</v>
       </c>
       <c r="E9" s="5">
-        <v>47484</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -706,10 +717,10 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>1896526</v>
+        <v>1839811</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="5">
         <v>45658</v>
@@ -723,16 +734,16 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>1942690</v>
+        <v>1896526</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D11" s="5">
         <v>45658</v>
       </c>
       <c r="E11" s="5">
-        <v>45887</v>
+        <v>47484</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -740,33 +751,33 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>1984587</v>
+        <v>1942690</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D12" s="5">
-        <v>45916</v>
+        <v>45658</v>
       </c>
       <c r="E12" s="5">
-        <v>47484</v>
+        <v>45887</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>1942690</v>
+        <v>1984587</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D13" s="5">
-        <v>45658</v>
+        <v>45916</v>
       </c>
       <c r="E13" s="5">
-        <v>45887</v>
+        <v>47484</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -774,16 +785,16 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>1816554</v>
+        <v>1942690</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D14" s="5">
-        <v>45888</v>
+        <v>45658</v>
       </c>
       <c r="E14" s="5">
-        <v>45915</v>
+        <v>45887</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -791,16 +802,16 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>1839811</v>
+        <v>1816554</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D15" s="5">
-        <v>45658</v>
+        <v>45888</v>
       </c>
       <c r="E15" s="5">
-        <v>47484</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -808,10 +819,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1896526</v>
+        <v>1839811</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" s="5">
         <v>45658</v>
@@ -825,13 +836,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1984587</v>
+        <v>1896526</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D17" s="5">
-        <v>45916</v>
+        <v>45658</v>
       </c>
       <c r="E17" s="5">
         <v>47484</v>
@@ -839,16 +850,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B18">
-        <v>1713314</v>
+        <v>1984587</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D18" s="5">
-        <v>45658</v>
+        <v>45916</v>
       </c>
       <c r="E18" s="5">
         <v>47484</v>
@@ -859,10 +870,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1896526</v>
+        <v>1713314</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D19" s="5">
         <v>45658</v>
@@ -876,16 +887,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1951097</v>
+        <v>1896526</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D20" s="5">
         <v>45658</v>
       </c>
       <c r="E20" s="5">
-        <v>45915</v>
+        <v>47484</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -893,30 +904,30 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <v>1984587</v>
+        <v>1951097</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D21" s="5">
-        <v>45916</v>
+        <v>45658</v>
       </c>
       <c r="E21" s="5">
-        <v>47484</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B22">
-        <v>1704647</v>
+        <v>1984587</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D22" s="5">
-        <v>45658</v>
+        <v>45916</v>
       </c>
       <c r="E22" s="5">
         <v>47484</v>
@@ -927,10 +938,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1713314</v>
+        <v>1704647</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D23" s="5">
         <v>45658</v>
@@ -944,10 +955,10 @@
         <v>21</v>
       </c>
       <c r="B24">
-        <v>1896526</v>
+        <v>1713314</v>
       </c>
       <c r="C24" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D24" s="5">
         <v>45658</v>
@@ -958,16 +969,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B25">
-        <v>1816554</v>
+        <v>1896526</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D25" s="5">
-        <v>45944</v>
+        <v>45658</v>
       </c>
       <c r="E25" s="5">
         <v>47484</v>
@@ -978,10 +989,10 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>1901994</v>
+        <v>1816554</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D26" s="5">
         <v>45944</v>
@@ -995,10 +1006,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1839811</v>
+        <v>1901994</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" s="5">
         <v>45944</v>
@@ -1012,10 +1023,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1896526</v>
+        <v>1839811</v>
       </c>
       <c r="C28" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" s="5">
         <v>45944</v>
@@ -1026,16 +1037,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B29">
-        <v>1794322</v>
+        <v>1896526</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D29" s="5">
-        <v>45658</v>
+        <v>45944</v>
       </c>
       <c r="E29" s="5">
         <v>47484</v>
@@ -1046,10 +1057,10 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>1984587</v>
+        <v>1794322</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D30" s="5">
         <v>45658</v>
@@ -1063,15 +1074,32 @@
         <v>30</v>
       </c>
       <c r="B31">
+        <v>1984587</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="5">
+        <v>45658</v>
+      </c>
+      <c r="E31" s="5">
+        <v>47484</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
         <v>1713314</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="5">
-        <v>45658</v>
-      </c>
-      <c r="E31" s="5">
+      <c r="D32" s="5">
+        <v>45658</v>
+      </c>
+      <c r="E32" s="5">
         <v>47484</v>
       </c>
     </row>
@@ -1083,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE49375D-24FF-444E-8C5E-D6E549CAFB13}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,8 +1124,8 @@
     <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1224,8 +1252,14 @@
       <c r="C7" t="s">
         <v>27</v>
       </c>
+      <c r="D7" s="6">
+        <v>2017594</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
       <c r="F7" s="5">
-        <v>45658</v>
+        <v>45999</v>
       </c>
       <c r="G7" s="5">
         <v>47484</v>
@@ -1233,22 +1267,18 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>1816554</v>
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2017594</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8">
-        <v>1984587</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="5">
-        <v>45916</v>
+        <v>45658</v>
       </c>
       <c r="G8" s="5">
         <v>47484</v>
@@ -1259,14 +1289,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>1839811</v>
+        <v>1816554</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>1984587</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
       <c r="F9" s="5">
-        <v>45658</v>
+        <v>45916</v>
       </c>
       <c r="G9" s="5">
         <v>47484</v>
@@ -1277,10 +1312,10 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>1896526</v>
+        <v>1839811</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="5"/>
       <c r="F10" s="5">
@@ -1295,10 +1330,10 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>1942690</v>
+        <v>1896526</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D11" s="5"/>
       <c r="F11" s="5">
@@ -1313,14 +1348,14 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>1984587</v>
+        <v>1942690</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D12" s="5"/>
       <c r="F12" s="5">
-        <v>45916</v>
+        <v>45658</v>
       </c>
       <c r="G12" s="5">
         <v>47484</v>
@@ -1328,25 +1363,20 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>1816554</v>
+        <v>1984587</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>1942690</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D13" s="5"/>
       <c r="F13" s="5">
-        <v>45658</v>
+        <v>45916</v>
       </c>
       <c r="G13" s="5">
-        <v>45887</v>
+        <v>47484</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1360,16 +1390,16 @@
         <v>12</v>
       </c>
       <c r="D14">
-        <v>1984587</v>
+        <v>1942690</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F14" s="5">
-        <v>45916</v>
+        <v>45658</v>
       </c>
       <c r="G14" s="5">
-        <v>47484</v>
+        <v>45887</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1377,22 +1407,22 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>1942690</v>
+        <v>1816554</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>1816554</v>
+        <v>1984587</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F15" s="5">
-        <v>45888</v>
+        <v>45916</v>
       </c>
       <c r="G15" s="5">
-        <v>45915</v>
+        <v>47484</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1400,16 +1430,22 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1839811</v>
+        <v>1942690</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>1816554</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
       </c>
       <c r="F16" s="5">
-        <v>45658</v>
+        <v>45888</v>
       </c>
       <c r="G16" s="5">
-        <v>47484</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1417,10 +1453,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1896526</v>
+        <v>1839811</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F17" s="5">
         <v>45658</v>
@@ -1434,14 +1470,13 @@
         <v>15</v>
       </c>
       <c r="B18">
-        <v>1984587</v>
+        <v>1896526</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="5"/>
+        <v>3</v>
+      </c>
       <c r="F18" s="5">
-        <v>45916</v>
+        <v>45658</v>
       </c>
       <c r="G18" s="5">
         <v>47484</v>
@@ -1449,16 +1484,17 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B19">
-        <v>1713314</v>
+        <v>1984587</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D19" s="5"/>
       <c r="F19" s="5">
-        <v>45658</v>
+        <v>45916</v>
       </c>
       <c r="G19" s="5">
         <v>47484</v>
@@ -1469,10 +1505,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1896526</v>
+        <v>1713314</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F20" s="5">
         <v>45658</v>
@@ -1486,19 +1522,13 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <v>1951097</v>
+        <v>1896526</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21">
-        <v>1984587</v>
-      </c>
-      <c r="E21" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F21" s="5">
-        <v>45916</v>
+        <v>45658</v>
       </c>
       <c r="G21" s="5">
         <v>47484</v>
@@ -1509,12 +1539,17 @@
         <v>18</v>
       </c>
       <c r="B22">
+        <v>1951097</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22">
         <v>1984587</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="5"/>
       <c r="F22" s="5">
         <v>45916</v>
       </c>
@@ -1524,16 +1559,17 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B23">
-        <v>1704647</v>
+        <v>1984587</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D23" s="5"/>
       <c r="F23" s="5">
-        <v>45658</v>
+        <v>45916</v>
       </c>
       <c r="G23" s="5">
         <v>47484</v>
@@ -1544,12 +1580,11 @@
         <v>21</v>
       </c>
       <c r="B24">
-        <v>1713314</v>
+        <v>1704647</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="5"/>
+        <v>19</v>
+      </c>
       <c r="F24" s="5">
         <v>45658</v>
       </c>
@@ -1562,10 +1597,10 @@
         <v>21</v>
       </c>
       <c r="B25">
-        <v>1896526</v>
+        <v>1713314</v>
       </c>
       <c r="C25" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D25" s="5"/>
       <c r="F25" s="5">
@@ -1580,17 +1615,12 @@
         <v>21</v>
       </c>
       <c r="B26">
-        <v>1956296</v>
+        <v>1896526</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26">
-        <v>1704647</v>
-      </c>
-      <c r="E26" t="s">
-        <v>19</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D26" s="5"/>
       <c r="F26" s="5">
         <v>45658</v>
       </c>
@@ -1603,10 +1633,10 @@
         <v>21</v>
       </c>
       <c r="B27">
-        <v>1816554</v>
+        <v>1956296</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D27">
         <v>1704647</v>
@@ -1623,7 +1653,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B28">
         <v>1816554</v>
@@ -1631,8 +1661,12 @@
       <c r="C28" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="D28">
+        <v>1704647</v>
+      </c>
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
       <c r="F28" s="5">
         <v>45658</v>
       </c>
@@ -1645,10 +1679,10 @@
         <v>26</v>
       </c>
       <c r="B29">
-        <v>1901994</v>
+        <v>1816554</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -1664,10 +1698,10 @@
         <v>26</v>
       </c>
       <c r="B30">
-        <v>1839811</v>
+        <v>1901994</v>
       </c>
       <c r="C30" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -1683,10 +1717,10 @@
         <v>26</v>
       </c>
       <c r="B31">
-        <v>1896526</v>
+        <v>1839811</v>
       </c>
       <c r="C31" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -1699,14 +1733,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B32">
-        <v>1794322</v>
+        <v>1896526</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
       <c r="F32" s="5">
         <v>45658</v>
       </c>
@@ -1719,10 +1755,10 @@
         <v>30</v>
       </c>
       <c r="B33">
-        <v>1984587</v>
+        <v>1794322</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F33" s="5">
         <v>45658</v>
@@ -1736,15 +1772,32 @@
         <v>30</v>
       </c>
       <c r="B34">
+        <v>1984587</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="5">
+        <v>45658</v>
+      </c>
+      <c r="G34" s="5">
+        <v>47484</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35">
         <v>1713314</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="5">
-        <v>45658</v>
-      </c>
-      <c r="G34" s="5">
+      <c r="F35" s="5">
+        <v>45658</v>
+      </c>
+      <c r="G35" s="5">
         <v>47484</v>
       </c>
     </row>
